--- a/biology/Médecine/Rameau_génital_du_nerf_génito-fémoral/Rameau_génital_du_nerf_génito-fémoral.xlsx
+++ b/biology/Médecine/Rameau_génital_du_nerf_génito-fémoral/Rameau_génital_du_nerf_génito-fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_g%C3%A9nital_du_nerf_g%C3%A9nito-f%C3%A9moral</t>
+          <t>Rameau_génital_du_nerf_génito-fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le rameau génital du nerf génito-fémoral (ou rameau terminal interne du nerf génito-fémoral ou rameau scrotal du nerf génito-fémoral) est un nerf pelvien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_g%C3%A9nital_du_nerf_g%C3%A9nito-f%C3%A9moral</t>
+          <t>Rameau_génital_du_nerf_génito-fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau génital du nerf génito-fémoral est une branche terminale du nerf génito-fémoral qui se termine au-dessus du ligament inguinal.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rameau_g%C3%A9nital_du_nerf_g%C3%A9nito-f%C3%A9moral</t>
+          <t>Rameau_génital_du_nerf_génito-fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau génital contourne la paroi abdominale, passe par le canal inguinal et suit le ligament rond de l'utérus chez la femme et le cordon spermatique chez l'homme.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rameau_g%C3%A9nital_du_nerf_g%C3%A9nito-f%C3%A9moral</t>
+          <t>Rameau_génital_du_nerf_génito-fémoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez la femme
-Chez la femme, le rameau génital innerve les grandes lèvres et le mont du pubis[1].
-Chez l'homme
-Chez l'homme, le rameau génital innerve le muscle crémaster, le muscle dartos et la partie antérieure du scrotum
+          <t>Chez la femme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez la femme, le rameau génital innerve les grandes lèvres et le mont du pubis.
 </t>
         </is>
       </c>
@@ -590,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rameau_g%C3%A9nital_du_nerf_g%C3%A9nito-f%C3%A9moral</t>
+          <t>Rameau_génital_du_nerf_génito-fémoral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +624,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Zone d'innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez l'homme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'homme, le rameau génital innerve le muscle crémaster, le muscle dartos et la partie antérieure du scrotum
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rameau_génital_du_nerf_génito-fémoral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rameau_g%C3%A9nital_du_nerf_g%C3%A9nito-f%C3%A9moral</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aspect Clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau génital du nerf génito-fémoral est responsable de la partie motrice du réflexe crémastérien.
 </t>
